--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd2-Cd48.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd2-Cd48.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.1866386666666666</v>
+      </c>
+      <c r="H2">
+        <v>0.559916</v>
+      </c>
+      <c r="I2">
+        <v>0.1464055063004341</v>
+      </c>
+      <c r="J2">
+        <v>0.1464055063004341</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>0.3533263333333334</v>
-      </c>
-      <c r="H2">
-        <v>1.059979</v>
-      </c>
-      <c r="I2">
-        <v>0.4564318550963779</v>
-      </c>
-      <c r="J2">
-        <v>0.456431855096378</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M2">
-        <v>0.01964966666666667</v>
+        <v>0.1244883333333334</v>
       </c>
       <c r="N2">
-        <v>0.058949</v>
+        <v>0.373465</v>
       </c>
       <c r="O2">
-        <v>0.0002041247656109304</v>
+        <v>0.001501237887643388</v>
       </c>
       <c r="P2">
-        <v>0.0002041247656109304</v>
+        <v>0.001501237887643387</v>
       </c>
       <c r="Q2">
-        <v>0.006942744674555555</v>
+        <v>0.02323433654888889</v>
       </c>
       <c r="R2">
-        <v>0.062484702071</v>
+        <v>0.20910902894</v>
       </c>
       <c r="S2">
-        <v>9.316904543891031E-05</v>
+        <v>0.0002197894930178244</v>
       </c>
       <c r="T2">
-        <v>9.316904543891033E-05</v>
+        <v>0.0002197894930178244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3533263333333334</v>
+        <v>0.1866386666666666</v>
       </c>
       <c r="H3">
-        <v>1.059979</v>
+        <v>0.559916</v>
       </c>
       <c r="I3">
-        <v>0.4564318550963779</v>
+        <v>0.1464055063004341</v>
       </c>
       <c r="J3">
-        <v>0.456431855096378</v>
+        <v>0.1464055063004341</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.208823333333333</v>
+        <v>0.01964966666666667</v>
       </c>
       <c r="N3">
-        <v>3.62647</v>
+        <v>0.058949</v>
       </c>
       <c r="O3">
-        <v>0.01255750460135152</v>
+        <v>0.000236960551159252</v>
       </c>
       <c r="P3">
-        <v>0.01255750460135152</v>
+        <v>0.000236960551159252</v>
       </c>
       <c r="Q3">
-        <v>0.4271091160144445</v>
+        <v>0.00366738758711111</v>
       </c>
       <c r="R3">
-        <v>3.84398204413</v>
+        <v>0.033006488284</v>
       </c>
       <c r="S3">
-        <v>0.005731645120576178</v>
+        <v>3.46923294657002E-05</v>
       </c>
       <c r="T3">
-        <v>0.005731645120576177</v>
+        <v>3.46923294657002E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.1866386666666666</v>
+      </c>
+      <c r="H4">
+        <v>0.559916</v>
+      </c>
+      <c r="I4">
+        <v>0.1464055063004341</v>
+      </c>
+      <c r="J4">
+        <v>0.1464055063004341</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.3533263333333334</v>
-      </c>
-      <c r="H4">
-        <v>1.059979</v>
-      </c>
-      <c r="I4">
-        <v>0.4564318550963779</v>
-      </c>
-      <c r="J4">
-        <v>0.456431855096378</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>95.03454833333335</v>
+        <v>0.132266</v>
       </c>
       <c r="N4">
-        <v>285.103645</v>
+        <v>0.396798</v>
       </c>
       <c r="O4">
-        <v>0.9872383706330377</v>
+        <v>0.001595030836466927</v>
       </c>
       <c r="P4">
-        <v>0.9872383706330374</v>
+        <v>0.001595030836466927</v>
       </c>
       <c r="Q4">
-        <v>33.57820850260612</v>
+        <v>0.02468594988533334</v>
       </c>
       <c r="R4">
-        <v>302.2038765234551</v>
+        <v>0.222173548968</v>
       </c>
       <c r="S4">
-        <v>0.4506070409303629</v>
+        <v>0.0002335212971777454</v>
       </c>
       <c r="T4">
-        <v>0.4506070409303628</v>
+        <v>0.0002335212971777453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.420779</v>
+        <v>0.1866386666666666</v>
       </c>
       <c r="H5">
-        <v>1.262337</v>
+        <v>0.559916</v>
       </c>
       <c r="I5">
-        <v>0.543568144903622</v>
+        <v>0.1464055063004341</v>
       </c>
       <c r="J5">
-        <v>0.5435681449036222</v>
+        <v>0.1464055063004341</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01964966666666667</v>
+        <v>82.64738466666667</v>
       </c>
       <c r="N5">
-        <v>0.058949</v>
+        <v>247.942154</v>
       </c>
       <c r="O5">
-        <v>0.0002041247656109304</v>
+        <v>0.9966667707247304</v>
       </c>
       <c r="P5">
-        <v>0.0002041247656109304</v>
+        <v>0.9966667707247304</v>
       </c>
       <c r="Q5">
-        <v>0.008268167090333333</v>
+        <v>15.42519767767378</v>
       </c>
       <c r="R5">
-        <v>0.07441350381300001</v>
+        <v>138.826779099064</v>
       </c>
       <c r="S5">
-        <v>0.0001109557201720201</v>
+        <v>0.1459175031807728</v>
       </c>
       <c r="T5">
-        <v>0.0001109557201720201</v>
+        <v>0.1459175031807728</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +770,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -782,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.420779</v>
+        <v>0.3533263333333334</v>
       </c>
       <c r="H6">
-        <v>1.262337</v>
+        <v>1.059979</v>
       </c>
       <c r="I6">
-        <v>0.543568144903622</v>
+        <v>0.2771607922667469</v>
       </c>
       <c r="J6">
-        <v>0.5435681449036222</v>
+        <v>0.2771607922667469</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.208823333333333</v>
+        <v>0.1244883333333334</v>
       </c>
       <c r="N6">
-        <v>3.62647</v>
+        <v>0.373465</v>
       </c>
       <c r="O6">
-        <v>0.01255750460135152</v>
+        <v>0.001501237887643388</v>
       </c>
       <c r="P6">
-        <v>0.01255750460135152</v>
+        <v>0.001501237887643387</v>
       </c>
       <c r="Q6">
-        <v>0.5086474733766667</v>
+        <v>0.04398500635944445</v>
       </c>
       <c r="R6">
-        <v>4.57782726039</v>
+        <v>0.395865057235</v>
       </c>
       <c r="S6">
-        <v>0.006825859480775346</v>
+        <v>0.000416084282320099</v>
       </c>
       <c r="T6">
-        <v>0.006825859480775346</v>
+        <v>0.0004160842823200988</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -844,46 +847,418 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.420779</v>
+        <v>0.3533263333333334</v>
       </c>
       <c r="H7">
-        <v>1.262337</v>
+        <v>1.059979</v>
       </c>
       <c r="I7">
-        <v>0.543568144903622</v>
+        <v>0.2771607922667469</v>
       </c>
       <c r="J7">
-        <v>0.5435681449036222</v>
+        <v>0.2771607922667469</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.01964966666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.058949</v>
+      </c>
+      <c r="O7">
+        <v>0.000236960551159252</v>
+      </c>
+      <c r="P7">
+        <v>0.000236960551159252</v>
+      </c>
+      <c r="Q7">
+        <v>0.006942744674555555</v>
+      </c>
+      <c r="R7">
+        <v>0.062484702071</v>
+      </c>
+      <c r="S7">
+        <v>6.56761740952633E-05</v>
+      </c>
+      <c r="T7">
+        <v>6.567617409526328E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3533263333333334</v>
+      </c>
+      <c r="H8">
+        <v>1.059979</v>
+      </c>
+      <c r="I8">
+        <v>0.2771607922667469</v>
+      </c>
+      <c r="J8">
+        <v>0.2771607922667469</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.132266</v>
+      </c>
+      <c r="N8">
+        <v>0.396798</v>
+      </c>
+      <c r="O8">
+        <v>0.001595030836466927</v>
+      </c>
+      <c r="P8">
+        <v>0.001595030836466927</v>
+      </c>
+      <c r="Q8">
+        <v>0.04673306080466668</v>
+      </c>
+      <c r="R8">
+        <v>0.420597547242</v>
+      </c>
+      <c r="S8">
+        <v>0.0004420800103250656</v>
+      </c>
+      <c r="T8">
+        <v>0.0004420800103250654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3533263333333334</v>
+      </c>
+      <c r="H9">
+        <v>1.059979</v>
+      </c>
+      <c r="I9">
+        <v>0.2771607922667469</v>
+      </c>
+      <c r="J9">
+        <v>0.2771607922667469</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>95.03454833333335</v>
-      </c>
-      <c r="N7">
-        <v>285.103645</v>
-      </c>
-      <c r="O7">
-        <v>0.9872383706330377</v>
-      </c>
-      <c r="P7">
-        <v>0.9872383706330374</v>
-      </c>
-      <c r="Q7">
-        <v>39.98854221315167</v>
-      </c>
-      <c r="R7">
-        <v>359.8968799183651</v>
-      </c>
-      <c r="S7">
-        <v>0.5366313297026747</v>
-      </c>
-      <c r="T7">
-        <v>0.5366313297026747</v>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>82.64738466666667</v>
+      </c>
+      <c r="N9">
+        <v>247.942154</v>
+      </c>
+      <c r="O9">
+        <v>0.9966667707247304</v>
+      </c>
+      <c r="P9">
+        <v>0.9966667707247304</v>
+      </c>
+      <c r="Q9">
+        <v>29.20149738386289</v>
+      </c>
+      <c r="R9">
+        <v>262.813476454766</v>
+      </c>
+      <c r="S9">
+        <v>0.2762369518000065</v>
+      </c>
+      <c r="T9">
+        <v>0.2762369518000065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7348413333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.204524</v>
+      </c>
+      <c r="I10">
+        <v>0.576433701432819</v>
+      </c>
+      <c r="J10">
+        <v>0.5764337014328189</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1244883333333334</v>
+      </c>
+      <c r="N10">
+        <v>0.373465</v>
+      </c>
+      <c r="O10">
+        <v>0.001501237887643388</v>
+      </c>
+      <c r="P10">
+        <v>0.001501237887643387</v>
+      </c>
+      <c r="Q10">
+        <v>0.09147917285111112</v>
+      </c>
+      <c r="R10">
+        <v>0.8233125556600002</v>
+      </c>
+      <c r="S10">
+        <v>0.0008653641123054645</v>
+      </c>
+      <c r="T10">
+        <v>0.0008653641123054642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7348413333333333</v>
+      </c>
+      <c r="H11">
+        <v>2.204524</v>
+      </c>
+      <c r="I11">
+        <v>0.576433701432819</v>
+      </c>
+      <c r="J11">
+        <v>0.5764337014328189</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01964966666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.058949</v>
+      </c>
+      <c r="O11">
+        <v>0.000236960551159252</v>
+      </c>
+      <c r="P11">
+        <v>0.000236960551159252</v>
+      </c>
+      <c r="Q11">
+        <v>0.01443938725288889</v>
+      </c>
+      <c r="R11">
+        <v>0.129954485276</v>
+      </c>
+      <c r="S11">
+        <v>0.0001365920475982885</v>
+      </c>
+      <c r="T11">
+        <v>0.0001365920475982885</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7348413333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.204524</v>
+      </c>
+      <c r="I12">
+        <v>0.576433701432819</v>
+      </c>
+      <c r="J12">
+        <v>0.5764337014328189</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.132266</v>
+      </c>
+      <c r="N12">
+        <v>0.396798</v>
+      </c>
+      <c r="O12">
+        <v>0.001595030836466927</v>
+      </c>
+      <c r="P12">
+        <v>0.001595030836466927</v>
+      </c>
+      <c r="Q12">
+        <v>0.09719452379466668</v>
+      </c>
+      <c r="R12">
+        <v>0.8747507141520001</v>
+      </c>
+      <c r="S12">
+        <v>0.0009194295289641163</v>
+      </c>
+      <c r="T12">
+        <v>0.0009194295289641159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7348413333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.204524</v>
+      </c>
+      <c r="I13">
+        <v>0.576433701432819</v>
+      </c>
+      <c r="J13">
+        <v>0.5764337014328189</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>82.64738466666667</v>
+      </c>
+      <c r="N13">
+        <v>247.942154</v>
+      </c>
+      <c r="O13">
+        <v>0.9966667707247304</v>
+      </c>
+      <c r="P13">
+        <v>0.9966667707247304</v>
+      </c>
+      <c r="Q13">
+        <v>60.73271434496623</v>
+      </c>
+      <c r="R13">
+        <v>546.594429104696</v>
+      </c>
+      <c r="S13">
+        <v>0.5745123157439511</v>
+      </c>
+      <c r="T13">
+        <v>0.574512315743951</v>
       </c>
     </row>
   </sheetData>
